--- a/src/enemies_sum/moves.xlsx
+++ b/src/enemies_sum/moves.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Armor\main-report\src\enemies_sum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD73CC4-F8B1-479F-A18A-3015650EE1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A02A4B6-0FE2-41C8-8D92-0B1137AA76A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10920" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Частота/маска</t>
   </si>
@@ -33,7 +33,28 @@
     <t>Переміщення</t>
   </si>
   <si>
-    <t>Штурмова група (ст. гр. БЕЛЫЙ), рухається в напрямку ТЕМНИЙ ЛІС</t>
+    <t>О 07:27 відмічено прибуття другого т/з з бійцями ров</t>
+  </si>
+  <si>
+    <t>О 10:00 відмічено початок переміщення 3 в/с ров (ст. гр. УЗБЕК)</t>
+  </si>
+  <si>
+    <t>В 11:21 повз ПОЕТА мають рухатися союзники у зворотньому напрямку</t>
+  </si>
+  <si>
+    <t>В 11:35 відмічено переміщення групи (ст. гр. ГОРЕЦ)</t>
+  </si>
+  <si>
+    <t>О 12:38 відмічено переміщення групи (по огороду БТВ)</t>
+  </si>
+  <si>
+    <t>О 13:14 планується відправіляти наступну групу. в/с споряджені пончо.</t>
+  </si>
+  <si>
+    <t>О 14:00 відмічено планування переміщення групи (ст. гр. ФЕВРАЛЬ) завтра зранку до ХОМИ.</t>
+  </si>
+  <si>
+    <t>О 14:48 ЛУКИЧ та ТЕПЛИЙ перемістилися до ЖЕТОНА.</t>
   </si>
 </sst>
 </file>
@@ -351,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -373,10 +394,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>300.33800000000002</v>
+        <v>300.346</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>200.22399999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>200.21100000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>300.346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>300.346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>100.107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>200.21199999999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>300.34699999999998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
